--- a/uIDs_sIDs.xlsx
+++ b/uIDs_sIDs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Lucami Dropbox\Andrej Košir andrejgacc@gmail.com\000-Research\003-SocialRobotAI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B46E7AD-40E8-41E3-AB2B-904E54A2E431}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFBF7129-1FBA-4132-84ED-F8D9943EE09A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29895" yWindow="1770" windowWidth="27690" windowHeight="14760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4890" yWindow="2025" windowWidth="27690" windowHeight="14760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="uIDs_sIDs" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
   <si>
     <t>uID</t>
   </si>
@@ -52,19 +52,39 @@
   </si>
   <si>
     <t>sID</t>
+  </si>
+  <si>
+    <t>DbRecordingID</t>
+  </si>
+  <si>
+    <t>Database recording ID: 16ef52e7-8ae6-474c-8911-a6aec7bafe58</t>
+  </si>
+  <si>
+    <t>Database recording ID: 0565b6af-c324-47da-b684-458970d6e48c</t>
+  </si>
+  <si>
+    <t>Database recording ID: f565c08a-5fb8-41c5-9da7-e2a5dc1a6af8</t>
+  </si>
+  <si>
+    <t>B</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -87,9 +107,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -370,10 +393,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q8" sqref="Q7:Q8"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -381,9 +404,10 @@
     <col min="2" max="2" width="9.140625" style="1"/>
     <col min="3" max="3" width="11.28515625" style="1" customWidth="1"/>
     <col min="4" max="4" width="9.140625" style="1"/>
+    <col min="5" max="5" width="63" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -397,10 +421,13 @@
         <v>8</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>66001</v>
       </c>
@@ -413,8 +440,11 @@
       <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>66001</v>
       </c>
@@ -427,13 +457,16 @@
       <c r="D3" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="E3" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>66002</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>4</v>
@@ -441,19 +474,8 @@
       <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>66002</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>6</v>
+      <c r="E4" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
